--- a/Excel01.xlsx
+++ b/Excel01.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\gitStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9E7096-AAEB-4D58-A783-AD6C22D2F4BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B878620-B434-4EE9-8573-608EAFFE45C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{6758D89A-0095-4B15-AE32-C99BD9774C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E41755-C36C-4B2B-9877-76E3F7CA8382}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -411,6 +411,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>123123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
